--- a/Data_preparation/datasets/final_data/QUALCOMM_INC.xlsx
+++ b/Data_preparation/datasets/final_data/QUALCOMM_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42092</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>50.63421817677034</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>50.28664779663086</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>53.17073607807491</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>48.94074068422496</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>1079000000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>110561765837</v>
@@ -891,22 +780,22 @@
         <v>42183</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>46.98672627648549</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>47.94731140136719</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>49.18341503964993</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>45.29639801189692</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>1079000000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>105384234796</v>
@@ -1019,22 +908,22 @@
         <v>42274</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>40.24893760821039</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>44.6192512512207</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>45.94836766948758</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>39.79839093213948</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>1079000000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>83619380445</v>
@@ -1147,22 +1036,22 @@
         <v>42365</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>37.48408630728156</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>34.38253021240234</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>38.37132709371375</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>32.96446019572154</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>1079000000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>74478307898</v>
@@ -1275,22 +1164,22 @@
         <v>42456</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>39.09888826657534</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>38.67023849487305</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>40.78286304697232</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>38.06553692049063</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>1079000000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>76029970875</v>
@@ -1403,22 +1292,22 @@
         <v>42547</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>40.95025544383655</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>48.36133193969727</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>48.54680039631238</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>39.53604445929848</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>1079000000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>76559857722</v>
@@ -1531,22 +1420,22 @@
         <v>42638</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>53.05826797356231</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>53.55705261230469</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>55.81717385122092</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>50.11231934287078</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>1079000000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>92471436159</v>
@@ -1659,22 +1548,22 @@
         <v>42729</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>51.72956938077056</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>41.96645736694336</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>52.68781622568582</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>41.49519009685886</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>1079000000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>98744643692</v>
@@ -1787,22 +1676,22 @@
         <v>42820</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>45.39519688131731</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>42.60457611083984</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>45.60925074610093</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>40.47196706406418</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>1079000000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>84073175826</v>
@@ -1915,22 +1804,22 @@
         <v>42911</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>44.45720446320183</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>42.58380508422852</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>45.5860474829653</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>41.81523176312123</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>1079000000</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>84080912182</v>
@@ -2043,22 +1932,22 @@
         <v>43002</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>42.16508008745418</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>41.29085540771485</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>44.33444900991759</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>40.4894858724879</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>1079000000</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>76888319404</v>
@@ -2171,22 +2060,22 @@
         <v>43093</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>52.55302815348841</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>55.71208953857422</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>56.24268211307936</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>52.38160708686337</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>1079000000</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>95422677082</v>
@@ -2287,22 +2176,22 @@
         <v>43184</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>45.36386671677448</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>41.99656677246094</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>46.75524689147601</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>39.97948259651921</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>1079000000</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>79436294571</v>
@@ -2415,22 +2304,22 @@
         <v>43275</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>46.0874189697698</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>53.316650390625</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>53.79084110621253</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>45.85448401477702</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>1079000000</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>86733405252</v>
@@ -2543,22 +2432,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>60.8285512684193</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>52.79475021362305</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>62.04579773411955</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>51.35924416486456</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>1079000000</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>105820068139</v>
@@ -2659,22 +2548,22 @@
         <v>43464</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>47.69083390378788</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>42.02224349975586</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>49.3625566405369</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>41.66583345403984</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>1079000000</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>68862956511</v>
@@ -2775,22 +2664,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>49.48156114839674</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>73.93904876708984</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>76.08519561269873</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>47.89341379255026</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>1079000000</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>69023733672</v>
@@ -2903,22 +2792,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>69.88485925290979</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>63.37891006469727</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>69.96283018049992</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>63.03238656188953</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>1079000000</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>92478217301</v>
@@ -3031,22 +2920,22 @@
         <v>43737</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>67.2875267411555</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>70.2388916015625</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>72.58775097842894</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>63.57649640492343</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>1079000000</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>93155851543</v>
@@ -3147,22 +3036,22 @@
         <v>43828</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>78.35992709617932</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>75.06889343261719</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>84.62519693545927</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>74.83130874376995</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>1079000000</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>101395823834</v>
@@ -3275,22 +3164,22 @@
         <v>43919</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>57.65199971216418</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>69.77665710449219</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>71.72795961644098</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>57.25287319015598</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>1079000000</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>76115220452</v>
@@ -3403,22 +3292,22 @@
         <v>44010</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>81.34645581221291</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>94.39620971679688</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>96.30898151881948</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>78.21808982320253</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>1079000000</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>99016160800</v>
@@ -3531,22 +3420,22 @@
         <v>44101</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>107.7698315357262</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>110.85205078125</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>118.9934199809431</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>103.7261040223708</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>1079000000</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>129186441542</v>
@@ -3659,22 +3548,22 @@
         <v>44192</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>138.0890951352035</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>141.0402221679688</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>151.5631906849169</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>132.7915175698095</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>1079000000</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>168281490000</v>
@@ -3787,22 +3676,22 @@
         <v>44283</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>121.9626364152752</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>125.86181640625</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>131.7559215118209</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>120.1218631584511</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>1079000000</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>151076640000</v>
@@ -3915,22 +3804,22 @@
         <v>44374</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>130.2499556137421</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>136.5295867919922</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>138.0972173070809</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>123.5875328781401</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>1079000000</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>155269200000</v>
@@ -4043,22 +3932,22 @@
         <v>44465</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>118.8523103021039</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>121.8190307617188</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>122.542407791879</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>111.8658412218451</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>1079000000</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>151016640000</v>
@@ -4171,22 +4060,22 @@
         <v>44556</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>168.1160033275405</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>161.5442962646484</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>177.9229980886852</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>144.6509042416479</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>1079000000</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>204668800000</v>
@@ -4299,22 +4188,22 @@
         <v>44647</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>140.2334316150178</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>128.9272613525391</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>142.254700225449</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>120.5929998285631</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>1079000000</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>178032190000</v>
@@ -4427,22 +4316,22 @@
         <v>44738</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>116.6722822082895</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>134.5883178710938</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>145.3509356502369</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>111.6713793860902</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>1079000000</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>140112000000</v>
@@ -4555,22 +4444,22 @@
         <v>44829</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>107.2876919650483</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>109.7788543701172</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>118.689168190246</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>97.64962555494668</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>1079000000</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>136096370000</v>
@@ -4683,22 +4572,22 @@
         <v>44920</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>104.5539255832556</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>125.0797424316406</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>126.6571993836932</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>100.5914855326328</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>1079000000</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>124251640000</v>
@@ -4811,22 +4700,22 @@
         <v>45011</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>119.9677190184511</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>110.3412094116211</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>120.5156479724526</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>105.9483431554105</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>1079000000</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>139107400000</v>
@@ -4939,22 +4828,22 @@
         <v>45102</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>113.4570753205749</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>125.7283630371094</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>126.4893759410638</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>108.0824479950405</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>1079000000</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>126361020000</v>
@@ -5067,22 +4956,22 @@
         <v>45193</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>105.7630125407569</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>104.4122314453125</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>109.5950056957919</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>99.94796322034904</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>1079000000</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>120170880000</v>
@@ -5195,22 +5084,22 @@
         <v>45284</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>137.0841068397152</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>143.1771545410156</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>152.307097833942</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>130.0944468247821</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>1079000000</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>159704370000</v>
@@ -5323,22 +5212,22 @@
         <v>45375</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>163.0516296963782</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>160.7066802978516</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>170.5322189180645</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>151.4915941188385</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>1079000000</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>189831600000</v>
@@ -5451,22 +5340,22 @@
         <v>45466</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>194.076135630825</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>176.0569305419922</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>205.3819146181004</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>162.2603788552847</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>1079000000</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>237183480000</v>
@@ -5579,22 +5468,22 @@
         <v>45564</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>166.0622141262047</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>159.1869659423828</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>175.8714236376172</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>158.5121524493731</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>1079000000</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>189524820000</v>
@@ -5707,22 +5596,22 @@
         <v>45655</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>152.3907915403076</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>170.0079956054688</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>173.802773808184</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>150.2083016671886</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>1079000000</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>174693640000</v>
@@ -5835,22 +5724,22 @@
         <v>45746</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>150.6228848329906</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>146.7384643554688</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>153.657292349785</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>119.3992061182842</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>1079000000</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>168908320000</v>
@@ -5963,22 +5852,22 @@
         <v>45837</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>157.3246773091798</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>145.9295196533203</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>163.0322016739741</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>144.7562042348384</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>1079000000</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>174076920000</v>
